--- a/SensitivityModels.xlsx
+++ b/SensitivityModels.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\01Dyactic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D470907-0FF6-47A1-ABB3-3D0925A75659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59813F69-1FF4-4DEE-A7E9-C6D666A83182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="between_covariates" sheetId="1" r:id="rId1"/>
-    <sheet name="individual_covariates" sheetId="2" r:id="rId2"/>
-    <sheet name="social_exchange_processes_cov" sheetId="3" r:id="rId3"/>
+    <sheet name="social_exchange_processes_cov" sheetId="2" r:id="rId2"/>
+    <sheet name="individual_covariates" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="469">
   <si>
     <t>Parameter</t>
   </si>
@@ -69,37 +69,37 @@
     <t>5.26***</t>
   </si>
   <si>
-    <t>[3.9, 6.63]</t>
+    <t>[ 3.90,  3.90]</t>
   </si>
   <si>
     <t>4.35***</t>
   </si>
   <si>
-    <t>[2.78, 5.93]</t>
+    <t>[ 2.78,  2.78]</t>
   </si>
   <si>
     <t>2.34***</t>
   </si>
   <si>
-    <t>[1.08, 3.6]</t>
+    <t>[ 1.08,  1.08]</t>
   </si>
   <si>
     <t>1.66*</t>
   </si>
   <si>
-    <t>[0.29, 3.04]</t>
+    <t>[ 0.29,  0.29]</t>
   </si>
   <si>
     <t>126.64***</t>
   </si>
   <si>
-    <t>[45.74, 350.61]</t>
+    <t>[45.74, 45.74]</t>
   </si>
   <si>
     <t>234.41***</t>
   </si>
   <si>
-    <t>[88.39, 621.67]</t>
+    <t>[88.39, 88.39]</t>
   </si>
   <si>
     <t>---WITHIN-PERSON EFFECTS---</t>
@@ -114,34 +114,34 @@
     <t>0.33***</t>
   </si>
   <si>
-    <t>[0.2, 0.45]</t>
+    <t>[ 0.20,  0.20]</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>[-0.1, 0.13]</t>
+    <t>[-0.10, -0.10]</t>
   </si>
   <si>
     <t>-0.16**</t>
   </si>
   <si>
-    <t>[-0.28, -0.04]</t>
-  </si>
-  <si>
-    <t>[-0.09, 0.12]</t>
+    <t>[-0.28, -0.28]</t>
+  </si>
+  <si>
+    <t>[-0.09, -0.09]</t>
   </si>
   <si>
     <t>1.20*</t>
   </si>
   <si>
-    <t>[1.04, 1.38]</t>
+    <t>[ 1.04,  1.04]</t>
   </si>
   <si>
     <t>1.36***</t>
   </si>
   <si>
-    <t>[1.21, 1.52]</t>
+    <t>[ 1.21,  1.21]</t>
   </si>
   <si>
     <t>NSC_agent_cw</t>
@@ -150,37 +150,37 @@
     <t>-0.26*</t>
   </si>
   <si>
-    <t>[-0.5, -0.03]</t>
+    <t>[-0.50, -0.50]</t>
   </si>
   <si>
     <t>-0.01</t>
   </si>
   <si>
-    <t>[-0.21, 0.2]</t>
+    <t>[-0.21, -0.21]</t>
   </si>
   <si>
     <t>0.21*</t>
   </si>
   <si>
-    <t>[0.03, 0.38]</t>
+    <t>[ 0.03,  0.03]</t>
   </si>
   <si>
     <t>-0.10</t>
   </si>
   <si>
-    <t>[-0.26, 0.07]</t>
+    <t>[-0.26, -0.26]</t>
   </si>
   <si>
     <t>1.08</t>
   </si>
   <si>
-    <t>[0.88, 1.32]</t>
+    <t>[ 0.88,  0.88]</t>
   </si>
   <si>
     <t>0.81*</t>
   </si>
   <si>
-    <t>[0.67, 0.98]</t>
+    <t>[ 0.67,  0.67]</t>
   </si>
   <si>
     <t>sbyday</t>
@@ -189,28 +189,28 @@
     <t>-0.00</t>
   </si>
   <si>
-    <t>[-0.01, 0.01]</t>
+    <t>[-0.01, -0.01]</t>
   </si>
   <si>
     <t>-0.01***</t>
   </si>
   <si>
-    <t>[-0.02, -0.01]</t>
+    <t>[-0.02, -0.02]</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>[0, 0.01]</t>
+    <t>[ 0.00,  0.00]</t>
   </si>
   <si>
     <t>1.00</t>
   </si>
   <si>
-    <t>[0.99, 1]</t>
-  </si>
-  <si>
-    <t>[1, 1.01]</t>
+    <t>[ 0.99,  0.99]</t>
+  </si>
+  <si>
+    <t>[ 1.00,  1.00]</t>
   </si>
   <si>
     <t>weeknd2</t>
@@ -219,34 +219,31 @@
     <t>0.04</t>
   </si>
   <si>
-    <t>[-0.03, 0.12]</t>
-  </si>
-  <si>
-    <t>[-0.03, 0.11]</t>
+    <t>[-0.03, -0.03]</t>
   </si>
   <si>
     <t>-0.15***</t>
   </si>
   <si>
-    <t>[-0.22, -0.09]</t>
+    <t>[-0.22, -0.22]</t>
   </si>
   <si>
     <t>-0.12***</t>
   </si>
   <si>
-    <t>[-0.18, -0.06]</t>
+    <t>[-0.18, -0.18]</t>
   </si>
   <si>
     <t>0.89**</t>
   </si>
   <si>
-    <t>[0.82, 0.97]</t>
+    <t>[ 0.82,  0.82]</t>
   </si>
   <si>
     <t>0.86***</t>
   </si>
   <si>
-    <t>[0.8, 0.93]</t>
+    <t>[ 0.80,  0.80]</t>
   </si>
   <si>
     <t>weartime_cw</t>
@@ -255,13 +252,13 @@
     <t>1.03**</t>
   </si>
   <si>
-    <t>[1.01, 1.05]</t>
+    <t>[ 1.01,  1.01]</t>
   </si>
   <si>
     <t>1.05***</t>
   </si>
   <si>
-    <t>[1.03, 1.07]</t>
+    <t>[ 1.03,  1.03]</t>
   </si>
   <si>
     <t>Sup_agent_cw</t>
@@ -312,37 +309,31 @@
     <t>0.22</t>
   </si>
   <si>
-    <t>[-0.26, 0.71]</t>
-  </si>
-  <si>
     <t>0.42</t>
   </si>
   <si>
-    <t>[-0.14, 0.97]</t>
+    <t>[-0.14, -0.14]</t>
   </si>
   <si>
     <t>0.35</t>
   </si>
   <si>
-    <t>[-0.1, 0.8]</t>
-  </si>
-  <si>
     <t>-0.47</t>
   </si>
   <si>
-    <t>[-0.95, 0.02]</t>
+    <t>[-0.95, -0.95]</t>
   </si>
   <si>
     <t>0.92</t>
   </si>
   <si>
-    <t>[0.65, 1.3]</t>
+    <t>[ 0.65,  0.65]</t>
   </si>
   <si>
     <t>1.23</t>
   </si>
   <si>
-    <t>[0.89, 1.7]</t>
+    <t>[ 0.89,  0.89]</t>
   </si>
   <si>
     <t>NSC_agent_cb</t>
@@ -351,48 +342,42 @@
     <t>-0.04</t>
   </si>
   <si>
-    <t>[-0.95, 0.87]</t>
-  </si>
-  <si>
     <t>-0.93</t>
   </si>
   <si>
-    <t>[-1.96, 0.11]</t>
-  </si>
-  <si>
-    <t>[-0.8, 0.88]</t>
+    <t>[-1.96, -1.96]</t>
+  </si>
+  <si>
+    <t>[-0.80, -0.80]</t>
   </si>
   <si>
     <t>0.76</t>
   </si>
   <si>
-    <t>[-0.16, 1.68]</t>
+    <t>[-0.16, -0.16]</t>
   </si>
   <si>
     <t>1.33</t>
   </si>
   <si>
-    <t>[0.66, 2.67]</t>
+    <t>[ 0.66,  0.66]</t>
   </si>
   <si>
     <t>0.80</t>
   </si>
   <si>
-    <t>[0.43, 1.5]</t>
+    <t>[ 0.43,  0.43]</t>
   </si>
   <si>
     <t>weartime_cb</t>
   </si>
   <si>
-    <t>[0.95, 1.06]</t>
+    <t>[ 0.95,  0.95]</t>
   </si>
   <si>
     <t>1.07*</t>
   </si>
   <si>
-    <t>[1.01, 1.12]</t>
-  </si>
-  <si>
     <t>Sup_agent_cb</t>
   </si>
   <si>
@@ -435,139 +420,85 @@
     <t>reldur_cb</t>
   </si>
   <si>
-    <t>[-0.02, 0.01]</t>
-  </si>
-  <si>
-    <t>[-0.01, 0.02]</t>
-  </si>
-  <si>
-    <t>[-0.02, 0.02]</t>
-  </si>
-  <si>
-    <t>[0.99, 1.02]</t>
-  </si>
-  <si>
-    <t>[0.99, 1.01]</t>
-  </si>
-  <si>
     <t>page</t>
   </si>
   <si>
-    <t>[-0.02, 0.04]</t>
-  </si>
-  <si>
-    <t>[-0.02, 0.05]</t>
-  </si>
-  <si>
     <t>-0.03</t>
   </si>
   <si>
-    <t>[-0.06, 0]</t>
+    <t>[-0.06, -0.06]</t>
   </si>
   <si>
     <t>0.99</t>
   </si>
   <si>
-    <t>[0.97, 1.01]</t>
+    <t>[ 0.97,  0.97]</t>
   </si>
   <si>
     <t>0.98</t>
   </si>
   <si>
-    <t>[0.96, 1]</t>
+    <t>[ 0.96,  0.96]</t>
   </si>
   <si>
     <t>sage</t>
   </si>
   <si>
-    <t>[-0.03, 0.02]</t>
-  </si>
-  <si>
     <t>-0.02</t>
   </si>
   <si>
-    <t>[-0.05, 0.01]</t>
+    <t>[-0.05, -0.05]</t>
   </si>
   <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>[0, 0.05]</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.02]</t>
-  </si>
-  <si>
-    <t>[0.98, 1.02]</t>
+    <t>[-0.04, -0.04]</t>
+  </si>
+  <si>
+    <t>[ 0.98,  0.98]</t>
   </si>
   <si>
     <t>pbmi</t>
   </si>
   <si>
-    <t>[-0.06, 0.01]</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.02]</t>
-  </si>
-  <si>
-    <t>[-0.03, 0.04]</t>
-  </si>
-  <si>
     <t>1.01</t>
   </si>
   <si>
-    <t>[0.98, 1.03]</t>
-  </si>
-  <si>
     <t>sbmi</t>
   </si>
   <si>
     <t>-0.03*</t>
   </si>
   <si>
-    <t>[-0.06, -0.01]</t>
-  </si>
-  <si>
-    <t>[-0.01, 0.03]</t>
-  </si>
-  <si>
-    <t>[-0.02, 0.03]</t>
-  </si>
-  <si>
-    <t>[0.97, 1]</t>
-  </si>
-  <si>
     <t>sb0kih01</t>
   </si>
   <si>
     <t>0.03</t>
   </si>
   <si>
-    <t>[-0.24, 0.31]</t>
-  </si>
-  <si>
-    <t>[-0.34, 0.29]</t>
-  </si>
-  <si>
-    <t>[-0.27, 0.25]</t>
+    <t>[-0.24, -0.24]</t>
+  </si>
+  <si>
+    <t>[-0.34, -0.34]</t>
+  </si>
+  <si>
+    <t>[-0.27, -0.27]</t>
   </si>
   <si>
     <t>-0.05</t>
   </si>
   <si>
-    <t>[-0.33, 0.22]</t>
+    <t>[-0.33, -0.33]</t>
   </si>
   <si>
     <t>1.21</t>
   </si>
   <si>
-    <t>[0.99, 1.47]</t>
-  </si>
-  <si>
     <t>1.13</t>
   </si>
   <si>
-    <t>[0.93, 1.36]</t>
+    <t>[ 0.93,  0.93]</t>
   </si>
   <si>
     <t>sb0sex01</t>
@@ -576,33 +507,24 @@
     <t>0.33*</t>
   </si>
   <si>
-    <t>[0.05, 0.61]</t>
+    <t>[ 0.05,  0.05]</t>
   </si>
   <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>[-0.24, 0.4]</t>
-  </si>
-  <si>
-    <t>[-0.3, 0.22]</t>
+    <t>[-0.30, -0.30]</t>
   </si>
   <si>
     <t>-0.23</t>
   </si>
   <si>
-    <t>[-0.51, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.82, 1.23]</t>
+    <t>[-0.51, -0.51]</t>
   </si>
   <si>
     <t>1.07</t>
   </si>
   <si>
-    <t>[0.88, 1.29]</t>
-  </si>
-  <si>
     <t>pb0sex01</t>
   </si>
   <si>
@@ -612,34 +534,28 @@
     <t>0.09</t>
   </si>
   <si>
-    <t>[-0.25, 0.44]</t>
+    <t>[-0.25, -0.25]</t>
   </si>
   <si>
     <t>0.11</t>
   </si>
   <si>
-    <t>[-0.29, 0.52]</t>
+    <t>[-0.29, -0.29]</t>
   </si>
   <si>
     <t>0.26</t>
   </si>
   <si>
-    <t>[-0.06, 0.58]</t>
-  </si>
-  <si>
     <t>-0.06</t>
   </si>
   <si>
-    <t>[-0.41, 0.29]</t>
+    <t>[-0.41, -0.41]</t>
   </si>
   <si>
     <t>1.04</t>
   </si>
   <si>
-    <t>[0.81, 1.34]</t>
-  </si>
-  <si>
-    <t>[0.82, 1.32]</t>
+    <t>[ 0.81,  0.81]</t>
   </si>
   <si>
     <t>groupindividual action control</t>
@@ -648,34 +564,34 @@
     <t>0.18</t>
   </si>
   <si>
-    <t>[-0.12, 0.48]</t>
+    <t>[-0.12, -0.12]</t>
   </si>
   <si>
     <t>0.44*</t>
   </si>
   <si>
-    <t>[0.09, 0.79]</t>
+    <t>[ 0.09,  0.09]</t>
   </si>
   <si>
     <t>-0.35*</t>
   </si>
   <si>
-    <t>[-0.64, -0.07]</t>
+    <t>[-0.64, -0.64]</t>
   </si>
   <si>
     <t>-0.26</t>
   </si>
   <si>
-    <t>[-0.57, 0.04]</t>
+    <t>[-0.57, -0.57]</t>
   </si>
   <si>
     <t>0.91</t>
   </si>
   <si>
-    <t>[0.73, 1.13]</t>
-  </si>
-  <si>
-    <t>[0.74, 1.12]</t>
+    <t>[ 0.73,  0.73]</t>
+  </si>
+  <si>
+    <t>[ 0.74,  0.74]</t>
   </si>
   <si>
     <t>---RANDOM-EFFECTS---</t>
@@ -687,31 +603,31 @@
     <t>0.61</t>
   </si>
   <si>
-    <t>[0.52, 0.72]</t>
+    <t>[ 0.52,  0.52]</t>
   </si>
   <si>
     <t>0.72</t>
   </si>
   <si>
-    <t>[0.62, 0.85]</t>
+    <t>[ 0.62,  0.62]</t>
   </si>
   <si>
     <t>0.60</t>
   </si>
   <si>
-    <t>[0.51, 0.7]</t>
+    <t>[ 0.51,  0.51]</t>
   </si>
   <si>
     <t>0.62</t>
   </si>
   <si>
-    <t>[0.35, 0.5]</t>
+    <t>[ 0.35,  0.35]</t>
   </si>
   <si>
     <t>0.36</t>
   </si>
   <si>
-    <t>[0.15, 0.85]</t>
+    <t>[ 0.15,  0.15]</t>
   </si>
   <si>
     <t>Std.Dev.PSC_agent_cw|CoupleID</t>
@@ -720,31 +636,31 @@
     <t>0.25</t>
   </si>
   <si>
-    <t>[0.13, 0.51]</t>
+    <t>[ 0.13,  0.13]</t>
   </si>
   <si>
     <t>0.21</t>
   </si>
   <si>
-    <t>[0.08, 0.51]</t>
+    <t>[ 0.08,  0.08]</t>
   </si>
   <si>
     <t>0.28</t>
   </si>
   <si>
-    <t>[0.17, 0.45]</t>
+    <t>[ 0.17,  0.17]</t>
   </si>
   <si>
     <t>0.27</t>
   </si>
   <si>
-    <t>[0.16, 0.46]</t>
+    <t>[ 0.16,  0.16]</t>
   </si>
   <si>
     <t>0.16</t>
   </si>
   <si>
-    <t>[0.04, 0.6]</t>
+    <t>[ 0.04,  0.04]</t>
   </si>
   <si>
     <t>Std.Dev.NSC_agent_cw|CoupleID</t>
@@ -753,40 +669,28 @@
     <t>0.34</t>
   </si>
   <si>
-    <t>[0.13, 0.88]</t>
-  </si>
-  <si>
-    <t>[0.03, 0.92]</t>
-  </si>
-  <si>
-    <t>[0.09, 0.68]</t>
-  </si>
-  <si>
     <t>0.10</t>
   </si>
   <si>
-    <t>[0.03, 0.37]</t>
-  </si>
-  <si>
     <t>Cor.PSC_agent_cw.(Intercept)|CoupleID</t>
   </si>
   <si>
     <t>-0.54</t>
   </si>
   <si>
-    <t>[-0.88, 0.16]</t>
+    <t>[-0.88, -0.88]</t>
   </si>
   <si>
     <t>-0.41</t>
   </si>
   <si>
-    <t>[-0.84, 0.33]</t>
+    <t>[-0.84, -0.84]</t>
   </si>
   <si>
     <t>-0.69</t>
   </si>
   <si>
-    <t>[-0.92, -0.1]</t>
+    <t>[-0.92, -0.92]</t>
   </si>
   <si>
     <t>-0.31</t>
@@ -795,34 +699,28 @@
     <t>0.24</t>
   </si>
   <si>
-    <t>[-0.29, 0.62]</t>
-  </si>
-  <si>
     <t>-0.59</t>
   </si>
   <si>
-    <t>[-0.92, 0.66]</t>
-  </si>
-  <si>
     <t>Cor.NSC_agent_cw.(Intercept)|CoupleID</t>
   </si>
   <si>
     <t>0.38</t>
   </si>
   <si>
-    <t>[-0.71, 0.93]</t>
+    <t>[-0.71, -0.71]</t>
   </si>
   <si>
     <t>-0.82</t>
   </si>
   <si>
-    <t>[-1, 0.96]</t>
+    <t>[-1.00, -1.00]</t>
   </si>
   <si>
     <t>0.67</t>
   </si>
   <si>
-    <t>[-0.82, 0.99]</t>
+    <t>[-0.82, -0.82]</t>
   </si>
   <si>
     <t>0.05</t>
@@ -834,21 +732,18 @@
     <t>Cor.NSC_agent_cw.PSC_agent_cw|CoupleID</t>
   </si>
   <si>
-    <t>[-0.91, 0.98]</t>
+    <t>[-0.91, -0.91]</t>
   </si>
   <si>
     <t>0.63</t>
   </si>
   <si>
-    <t>[-0.99, 1]</t>
+    <t>[-0.99, -0.99]</t>
   </si>
   <si>
     <t>-0.95</t>
   </si>
   <si>
-    <t>[-1, 0.87]</t>
-  </si>
-  <si>
     <t>0.39</t>
   </si>
   <si>
@@ -858,21 +753,18 @@
     <t>Within-group standard error</t>
   </si>
   <si>
-    <t>[0.59, 0.64]</t>
+    <t>[ 0.59,  0.59]</t>
   </si>
   <si>
     <t>0.57</t>
   </si>
   <si>
-    <t>[0.55, 0.6]</t>
+    <t>[ 0.55,  0.55]</t>
   </si>
   <si>
     <t>0.54</t>
   </si>
   <si>
-    <t>[0.51, 0.56]</t>
-  </si>
-  <si>
     <t>0.47</t>
   </si>
   <si>
@@ -882,13 +774,13 @@
     <t>15.29</t>
   </si>
   <si>
-    <t>[13.86, 16.87]</t>
+    <t>[13.86, 13.86]</t>
   </si>
   <si>
     <t>14.41</t>
   </si>
   <si>
-    <t>[12.93, 16.05]</t>
+    <t>[12.93, 12.93]</t>
   </si>
   <si>
     <t>AR1</t>
@@ -897,733 +789,616 @@
     <t>0.19</t>
   </si>
   <si>
-    <t>[0.13, 0.25]</t>
-  </si>
-  <si>
     <t>0.96</t>
   </si>
   <si>
+    <t>3.85***</t>
+  </si>
+  <si>
+    <t>[ 3.70,  3.70]</t>
+  </si>
+  <si>
+    <t>3.98***</t>
+  </si>
+  <si>
+    <t>[ 3.83,  3.83]</t>
+  </si>
+  <si>
+    <t>1.91***</t>
+  </si>
+  <si>
+    <t>[ 1.77,  1.77]</t>
+  </si>
+  <si>
+    <t>1.83***</t>
+  </si>
+  <si>
+    <t>[ 1.69,  1.69]</t>
+  </si>
+  <si>
+    <t>43.50***</t>
+  </si>
+  <si>
+    <t>[38.59, 38.59]</t>
+  </si>
+  <si>
+    <t>40.52***</t>
+  </si>
+  <si>
+    <t>[35.54, 35.54]</t>
+  </si>
+  <si>
+    <t>0.26***</t>
+  </si>
+  <si>
+    <t>[ 0.12,  0.12]</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>[-0.20, -0.20]</t>
+  </si>
+  <si>
+    <t>[ 0.92,  0.92]</t>
+  </si>
+  <si>
+    <t>1.22**</t>
+  </si>
+  <si>
+    <t>[ 1.07,  1.07]</t>
+  </si>
+  <si>
+    <t>-0.25*</t>
+  </si>
+  <si>
+    <t>[-0.48, -0.48]</t>
+  </si>
+  <si>
+    <t>0.18*</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>0.78*</t>
+  </si>
+  <si>
+    <t>[ 0.64,  0.64]</t>
+  </si>
+  <si>
+    <t>-0.01**</t>
+  </si>
+  <si>
+    <t>[-0.08, -0.08]</t>
+  </si>
+  <si>
+    <t>-0.10*</t>
+  </si>
+  <si>
+    <t>[-0.17, -0.17]</t>
+  </si>
+  <si>
+    <t>-0.11**</t>
+  </si>
+  <si>
+    <t>0.91*</t>
+  </si>
+  <si>
+    <t>[ 0.83,  0.83]</t>
+  </si>
+  <si>
+    <t>0.90*</t>
+  </si>
+  <si>
+    <t>1.04**</t>
+  </si>
+  <si>
+    <t>1.06***</t>
+  </si>
+  <si>
+    <t>0.06**</t>
+  </si>
+  <si>
+    <t>[ 0.02,  0.02]</t>
+  </si>
+  <si>
+    <t>-0.04*</t>
+  </si>
+  <si>
+    <t>1.08***</t>
+  </si>
+  <si>
+    <t>0.05**</t>
+  </si>
+  <si>
+    <t>[ 0.01,  0.01]</t>
+  </si>
+  <si>
+    <t>-0.05**</t>
+  </si>
+  <si>
+    <t>1.11***</t>
+  </si>
+  <si>
+    <t>[ 1.06,  1.06]</t>
+  </si>
+  <si>
+    <t>1.09***</t>
+  </si>
+  <si>
+    <t>[ 1.05,  1.05]</t>
+  </si>
+  <si>
+    <t>0.99**</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>[-0.55, -0.55]</t>
+  </si>
+  <si>
+    <t>-0.62*</t>
+  </si>
+  <si>
+    <t>[-1.13, -1.13]</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>[ 0.49,  0.49]</t>
+  </si>
+  <si>
+    <t>[ 0.63,  0.63]</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>-0.77</t>
+  </si>
+  <si>
+    <t>[-1.73, -1.73]</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>[ 0.69,  0.69]</t>
+  </si>
+  <si>
+    <t>[ 0.94,  0.94]</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>[-0.44, -0.44]</t>
+  </si>
+  <si>
+    <t>0.26**</t>
+  </si>
+  <si>
+    <t>[ 0.10,  0.10]</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>0.23*</t>
+  </si>
+  <si>
+    <t>0.19*</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>[ 0.50,  0.50]</t>
+  </si>
+  <si>
+    <t>[ 0.39,  0.39]</t>
+  </si>
+  <si>
+    <t>[ 0.40,  0.40]</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>[ 0.19,  0.19]</t>
+  </si>
+  <si>
+    <t>-0.44</t>
+  </si>
+  <si>
+    <t>-0.39</t>
+  </si>
+  <si>
+    <t>-0.48</t>
+  </si>
+  <si>
+    <t>[-0.77, -0.77]</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[-0.36, -0.36]</t>
+  </si>
+  <si>
+    <t>-0.49</t>
+  </si>
+  <si>
+    <t>[-0.81, -0.81]</t>
+  </si>
+  <si>
+    <t>[-0.68, -0.68]</t>
+  </si>
+  <si>
+    <t>-0.57</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>[-0.79, -0.79]</t>
+  </si>
+  <si>
+    <t>[-0.65, -0.65]</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>-0.81</t>
+  </si>
+  <si>
+    <t>[ 0.58,  0.58]</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>[ 0.45,  0.45]</t>
+  </si>
+  <si>
+    <t>14.79</t>
+  </si>
+  <si>
+    <t>[13.37, 13.37]</t>
+  </si>
+  <si>
+    <t>13.09</t>
+  </si>
+  <si>
+    <t>[ 9.38,  9.38]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
     <t>3.83***</t>
   </si>
   <si>
-    <t>[3.68, 3.98]</t>
+    <t>[ 3.68,  3.68]</t>
   </si>
   <si>
     <t>3.97***</t>
   </si>
   <si>
-    <t>[3.82, 4.13]</t>
+    <t>[ 3.82,  3.82]</t>
   </si>
   <si>
     <t>1.93***</t>
   </si>
   <si>
-    <t>[1.8, 2.07]</t>
+    <t>[ 1.80,  1.80]</t>
   </si>
   <si>
     <t>1.82***</t>
   </si>
   <si>
-    <t>[1.69, 1.96]</t>
-  </si>
-  <si>
     <t>44.17***</t>
   </si>
   <si>
-    <t>[39.35, 49.57]</t>
+    <t>[39.35, 39.35]</t>
   </si>
   <si>
     <t>41.69***</t>
   </si>
   <si>
-    <t>[37.09, 46.85]</t>
-  </si>
-  <si>
-    <t>[-0.12, 0.1]</t>
+    <t>[37.09, 37.09]</t>
   </si>
   <si>
     <t>-0.16*</t>
   </si>
   <si>
-    <t>[-0.1, 0.12]</t>
-  </si>
-  <si>
     <t>1.18*</t>
   </si>
   <si>
-    <t>[1.02, 1.37]</t>
-  </si>
-  <si>
-    <t>[1.21, 1.53]</t>
+    <t>[ 1.02,  1.02]</t>
   </si>
   <si>
     <t>-0.24</t>
   </si>
   <si>
-    <t>[-0.48, 0]</t>
-  </si>
-  <si>
-    <t>[-0.21, 0.22]</t>
-  </si>
-  <si>
-    <t>[-0.01, 0.38]</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>[-0.25, 0.12]</t>
-  </si>
-  <si>
     <t>1.16</t>
   </si>
   <si>
-    <t>[0.91, 1.48]</t>
+    <t>[ 0.91,  0.91]</t>
   </si>
   <si>
     <t>0.73**</t>
   </si>
   <si>
-    <t>[0.59, 0.9]</t>
-  </si>
-  <si>
-    <t>-0.01**</t>
-  </si>
-  <si>
-    <t>[-0.02, 0]</t>
-  </si>
-  <si>
-    <t>[-0.05, 0.11]</t>
-  </si>
-  <si>
-    <t>[-0.02, 0.12]</t>
-  </si>
-  <si>
     <t>-0.14***</t>
   </si>
   <si>
-    <t>[-0.21, -0.07]</t>
-  </si>
-  <si>
     <t>0.93</t>
   </si>
   <si>
-    <t>[0.85, 1.01]</t>
+    <t>[ 0.85,  0.85]</t>
   </si>
   <si>
     <t>0.88**</t>
   </si>
   <si>
-    <t>[0.81, 0.96]</t>
-  </si>
-  <si>
     <t>1.04***</t>
   </si>
   <si>
-    <t>[1.02, 1.07]</t>
-  </si>
-  <si>
-    <t>1.06***</t>
-  </si>
-  <si>
-    <t>[1.04, 1.08]</t>
-  </si>
-  <si>
-    <t>[-0.12, 0.01]</t>
-  </si>
-  <si>
-    <t>[-0.09, 0.04]</t>
-  </si>
-  <si>
-    <t>[-0.07, 0.05]</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.93, 1.06]</t>
-  </si>
-  <si>
-    <t>[0.95, 1.08]</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.08]</t>
-  </si>
-  <si>
-    <t>[-0.08, 0.04]</t>
-  </si>
-  <si>
-    <t>[-0.05, 0.06]</t>
-  </si>
-  <si>
-    <t>[-0.08, 0.02]</t>
-  </si>
-  <si>
-    <t>[0.92, 1.04]</t>
-  </si>
-  <si>
-    <t>[0.94, 1.06]</t>
+    <t>[-0.07, -0.07]</t>
   </si>
   <si>
     <t>0.09**</t>
   </si>
   <si>
-    <t>[0.03, 0.16]</t>
-  </si>
-  <si>
-    <t>[-0.01, 0.11]</t>
-  </si>
-  <si>
     <t>-0.08**</t>
   </si>
   <si>
-    <t>[-0.13, -0.02]</t>
-  </si>
-  <si>
-    <t>[-0.07, 0.04]</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>[0.96, 1.09]</t>
-  </si>
-  <si>
-    <t>[0.93, 1.04]</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.06]</t>
+    <t>[-0.13, -0.13]</t>
   </si>
   <si>
     <t>0.07*</t>
   </si>
   <si>
-    <t>[0.01, 0.12]</t>
-  </si>
-  <si>
-    <t>[-0.08, 0.03]</t>
-  </si>
-  <si>
-    <t>[-0.05, 0.04]</t>
-  </si>
-  <si>
-    <t>[0.91, 1.02]</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.03]</t>
-  </si>
-  <si>
     <t>0.04*</t>
   </si>
   <si>
-    <t>[0.01, 0.08]</t>
-  </si>
-  <si>
-    <t>[0.95, 1.03]</t>
-  </si>
-  <si>
-    <t>[0.97, 1.04]</t>
-  </si>
-  <si>
-    <t>[-0.07, 0.02]</t>
-  </si>
-  <si>
-    <t>[-0.07, 0.01]</t>
-  </si>
-  <si>
-    <t>[-0.02, 0.06]</t>
-  </si>
-  <si>
-    <t>[-0.01, 0.06]</t>
-  </si>
-  <si>
     <t>1.05*</t>
   </si>
   <si>
-    <t>[1, 1.1]</t>
-  </si>
-  <si>
-    <t>[0.97, 1.05]</t>
-  </si>
-  <si>
-    <t>[-0.05, 0.03]</t>
-  </si>
-  <si>
-    <t>-0.04*</t>
-  </si>
-  <si>
-    <t>[-0.08, 0]</t>
-  </si>
-  <si>
-    <t>0.05**</t>
-  </si>
-  <si>
-    <t>[0.02, 0.08]</t>
-  </si>
-  <si>
     <t>0.94**</t>
   </si>
   <si>
-    <t>[0.9, 0.98]</t>
-  </si>
-  <si>
-    <t>[0.94, 1.02]</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.03]</t>
+    <t>[ 0.90,  0.90]</t>
   </si>
   <si>
     <t>-0.07**</t>
   </si>
   <si>
-    <t>[-0.11, -0.03]</t>
-  </si>
-  <si>
-    <t>[0, 0.08]</t>
-  </si>
-  <si>
-    <t>[-0.03, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.96, 1.05]</t>
-  </si>
-  <si>
-    <t>[0.94, 1.03]</t>
+    <t>[-0.11, -0.11]</t>
   </si>
   <si>
     <t>0.13***</t>
   </si>
   <si>
-    <t>[0.09, 0.17]</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t>1.09***</t>
-  </si>
-  <si>
-    <t>[1.04, 1.14]</t>
-  </si>
-  <si>
     <t>0.05*</t>
   </si>
   <si>
-    <t>[0.01, 0.09]</t>
-  </si>
-  <si>
-    <t>[-0.05, 0.02]</t>
-  </si>
-  <si>
-    <t>[0.95, 1.04]</t>
-  </si>
-  <si>
     <t>-0.14</t>
   </si>
   <si>
-    <t>[-0.69, 0.41]</t>
-  </si>
-  <si>
-    <t>[-0.32, 0.88]</t>
-  </si>
-  <si>
-    <t>[-0.16, 0.85]</t>
-  </si>
-  <si>
-    <t>[-0.91, 0.09]</t>
+    <t>[-0.69, -0.69]</t>
+  </si>
+  <si>
+    <t>[-0.32, -0.32]</t>
   </si>
   <si>
     <t>0.89</t>
   </si>
   <si>
-    <t>[0.6, 1.32]</t>
+    <t>[ 0.60,  0.60]</t>
   </si>
   <si>
     <t>0.82</t>
   </si>
   <si>
-    <t>[0.55, 1.21]</t>
-  </si>
-  <si>
-    <t>[-0.06, 2.04]</t>
-  </si>
-  <si>
-    <t>[-1.47, 0.86]</t>
-  </si>
-  <si>
-    <t>[-1.03, 0.92]</t>
+    <t>[-1.47, -1.47]</t>
+  </si>
+  <si>
+    <t>[-1.03, -1.03]</t>
   </si>
   <si>
     <t>0.73</t>
   </si>
   <si>
-    <t>[-0.23, 1.7]</t>
+    <t>[-0.23, -0.23]</t>
   </si>
   <si>
     <t>1.36</t>
   </si>
   <si>
-    <t>[0.62, 3.01]</t>
-  </si>
-  <si>
     <t>1.86</t>
   </si>
   <si>
-    <t>[0.86, 4.01]</t>
+    <t>[ 0.86,  0.86]</t>
   </si>
   <si>
     <t>1.03</t>
   </si>
   <si>
-    <t>[0.97, 1.09]</t>
-  </si>
-  <si>
     <t>-0.58</t>
   </si>
   <si>
-    <t>[-1.18, 0.02]</t>
+    <t>[-1.18, -1.18]</t>
   </si>
   <si>
     <t>-0.21</t>
   </si>
   <si>
-    <t>[-0.87, 0.46]</t>
+    <t>[-0.87, -0.87]</t>
   </si>
   <si>
     <t>0.63*</t>
   </si>
   <si>
-    <t>[0.07, 1.19]</t>
+    <t>[ 0.07,  0.07]</t>
   </si>
   <si>
     <t>0.06</t>
   </si>
   <si>
-    <t>[-0.5, 0.62]</t>
-  </si>
-  <si>
-    <t>[0.58, 1.36]</t>
-  </si>
-  <si>
-    <t>[0.68, 1.6]</t>
-  </si>
-  <si>
-    <t>-0.62*</t>
-  </si>
-  <si>
-    <t>[-1.19, -0.05]</t>
-  </si>
-  <si>
-    <t>-0.48</t>
-  </si>
-  <si>
-    <t>[-1.11, 0.15]</t>
-  </si>
-  <si>
-    <t>[-0.52, 0.54]</t>
-  </si>
-  <si>
-    <t>[-0.49, 0.57]</t>
+    <t>[ 0.68,  0.68]</t>
+  </si>
+  <si>
+    <t>[-1.19, -1.19]</t>
+  </si>
+  <si>
+    <t>[-1.11, -1.11]</t>
+  </si>
+  <si>
+    <t>[-0.52, -0.52]</t>
+  </si>
+  <si>
+    <t>[-0.49, -0.49]</t>
   </si>
   <si>
     <t>1.20</t>
   </si>
   <si>
-    <t>[0.81, 1.79]</t>
-  </si>
-  <si>
-    <t>[0.66, 1.52]</t>
-  </si>
-  <si>
     <t>0.49</t>
   </si>
   <si>
-    <t>[-0.1, 1.08]</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[-0.35, 0.95]</t>
+    <t>[-0.35, -0.35]</t>
   </si>
   <si>
     <t>-0.57*</t>
   </si>
   <si>
-    <t>[-1.12, -0.02]</t>
-  </si>
-  <si>
-    <t>[-0.53, 0.57]</t>
-  </si>
-  <si>
-    <t>[0.64, 1.52]</t>
+    <t>[-1.12, -1.12]</t>
+  </si>
+  <si>
+    <t>[-0.53, -0.53]</t>
   </si>
   <si>
     <t>0.81</t>
   </si>
   <si>
-    <t>[0.53, 1.23]</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>[-0.02, 1.08]</t>
-  </si>
-  <si>
-    <t>[-0.08, 1.14]</t>
-  </si>
-  <si>
-    <t>[-0.75, 0.27]</t>
+    <t>[ 0.53,  0.53]</t>
+  </si>
+  <si>
+    <t>[-0.75, -0.75]</t>
   </si>
   <si>
     <t>-0.12</t>
   </si>
   <si>
-    <t>[-0.63, 0.4]</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>[0.51, 1.1]</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>[0.75, 1.65]</t>
-  </si>
-  <si>
-    <t>[-0.16, 0.36]</t>
-  </si>
-  <si>
-    <t>[-0.38, 0.19]</t>
-  </si>
-  <si>
-    <t>[-0.2, 0.28]</t>
+    <t>[-0.63, -0.63]</t>
+  </si>
+  <si>
+    <t>[ 0.75,  0.75]</t>
+  </si>
+  <si>
+    <t>[-0.38, -0.38]</t>
   </si>
   <si>
     <t>-0.13</t>
   </si>
   <si>
-    <t>[-0.37, 0.11]</t>
+    <t>[-0.37, -0.37]</t>
   </si>
   <si>
     <t>1.23*</t>
   </si>
   <si>
-    <t>[1.03, 1.47]</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>[0.91, 1.31]</t>
-  </si>
-  <si>
-    <t>[-0.24, 0.41]</t>
-  </si>
-  <si>
-    <t>[-0.34, 0.38]</t>
-  </si>
-  <si>
-    <t>[-0.27, 0.34]</t>
-  </si>
-  <si>
-    <t>[-0.2, 0.41]</t>
-  </si>
-  <si>
-    <t>[0.82, 1.31]</t>
-  </si>
-  <si>
-    <t>[0.79, 1.26]</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>[-0.24, 0.05]</t>
-  </si>
-  <si>
-    <t>[-0.11, 0.21]</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.23]</t>
-  </si>
-  <si>
-    <t>[-0.02, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.87, 1.07]</t>
+    <t>[ 0.79,  0.79]</t>
+  </si>
+  <si>
+    <t>[ 0.87,  0.87]</t>
   </si>
   <si>
     <t>1.05</t>
   </si>
   <si>
-    <t>[0.95, 1.17]</t>
-  </si>
-  <si>
-    <t>[-0.13, 0.16]</t>
-  </si>
-  <si>
-    <t>[-0.07, 0.24]</t>
-  </si>
-  <si>
-    <t>[-0.07, 0.2]</t>
-  </si>
-  <si>
-    <t>[-0.07, 0.19]</t>
-  </si>
-  <si>
-    <t>[0.94, 1.15]</t>
-  </si>
-  <si>
-    <t>0.18*</t>
-  </si>
-  <si>
-    <t>[0.03, 0.33]</t>
-  </si>
-  <si>
-    <t>[-0.15, 0.18]</t>
-  </si>
-  <si>
-    <t>[-0.17, 0.11]</t>
-  </si>
-  <si>
-    <t>[-0.09, 0.19]</t>
-  </si>
-  <si>
-    <t>[0.88, 1.09]</t>
+    <t>[-0.15, -0.15]</t>
   </si>
   <si>
     <t>1.06</t>
   </si>
   <si>
-    <t>[0.95, 1.19]</t>
-  </si>
-  <si>
-    <t>[-0.11, 0.18]</t>
-  </si>
-  <si>
-    <t>[-0.13, 0.19]</t>
-  </si>
-  <si>
-    <t>[-0.08, 0.19]</t>
-  </si>
-  <si>
     <t>-0.14*</t>
   </si>
   <si>
-    <t>[-0.28, 0]</t>
-  </si>
-  <si>
-    <t>[0.94, 1.16]</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>[0.53, 0.76]</t>
-  </si>
-  <si>
     <t>0.71</t>
   </si>
   <si>
-    <t>[0.61, 0.84]</t>
-  </si>
-  <si>
-    <t>[0.52, 0.71]</t>
-  </si>
-  <si>
-    <t>[0.36, 0.51]</t>
+    <t>[ 0.61,  0.61]</t>
+  </si>
+  <si>
+    <t>[ 0.36,  0.36]</t>
   </si>
   <si>
     <t>0.45</t>
   </si>
   <si>
-    <t>[0.38, 0.53]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.63]</t>
-  </si>
-  <si>
-    <t>[0.07, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.18, 0.45]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.41]</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>[0.09, 0.45]</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>[0.06, 1.5]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.72]</t>
-  </si>
-  <si>
-    <t>[0.11, 0.67]</t>
-  </si>
-  <si>
-    <t>[0.11, 0.79]</t>
-  </si>
-  <si>
-    <t>[0, 4.78]</t>
-  </si>
-  <si>
-    <t>[-0.93, 0.27]</t>
+    <t>[ 0.38,  0.38]</t>
+  </si>
+  <si>
+    <t>[ 0.18,  0.18]</t>
+  </si>
+  <si>
+    <t>[ 0.06,  0.06]</t>
+  </si>
+  <si>
+    <t>[ 0.11,  0.11]</t>
+  </si>
+  <si>
+    <t>[-0.93, -0.93]</t>
   </si>
   <si>
     <t>-0.71</t>
   </si>
   <si>
-    <t>[-0.99, 0.82]</t>
-  </si>
-  <si>
-    <t>-0.57</t>
-  </si>
-  <si>
-    <t>[-0.86, 0.01]</t>
-  </si>
-  <si>
-    <t>[-0.78, 0.03]</t>
-  </si>
-  <si>
-    <t>[-0.26, 0.75]</t>
+    <t>[-0.86, -0.86]</t>
+  </si>
+  <si>
+    <t>[-0.78, -0.78]</t>
   </si>
   <si>
     <t>-0.75</t>
   </si>
   <si>
-    <t>[-0.95, 0.66]</t>
-  </si>
-  <si>
     <t>0.58</t>
   </si>
   <si>
-    <t>[-0.8, 0.98]</t>
-  </si>
-  <si>
     <t>0.13</t>
   </si>
   <si>
-    <t>[-1, 1]</t>
-  </si>
-  <si>
-    <t>[-0.61, 0.98]</t>
-  </si>
-  <si>
-    <t>[-0.71, 0.42]</t>
+    <t>[-0.61, -0.61]</t>
   </si>
   <si>
     <t>0.94</t>
@@ -1635,449 +1410,32 @@
     <t>-0.94</t>
   </si>
   <si>
-    <t>[-1, 0.98]</t>
-  </si>
-  <si>
-    <t>[-0.99, 0.48]</t>
-  </si>
-  <si>
-    <t>[0.57, 0.63]</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>[0.53, 0.58]</t>
+    <t>[ 0.57,  0.57]</t>
   </si>
   <si>
     <t>0.52</t>
   </si>
   <si>
-    <t>[0.5, 0.55]</t>
-  </si>
-  <si>
-    <t>[0.45, 0.49]</t>
-  </si>
-  <si>
     <t>15.20</t>
   </si>
   <si>
-    <t>[13.7, 16.87]</t>
+    <t>[13.70, 13.70]</t>
   </si>
   <si>
     <t>14.09</t>
   </si>
   <si>
-    <t>[12.09, 16.42]</t>
-  </si>
-  <si>
-    <t>[0.12, 0.26]</t>
+    <t>[12.09, 12.09]</t>
   </si>
   <si>
     <t>-0.53</t>
-  </si>
-  <si>
-    <t>3.85***</t>
-  </si>
-  <si>
-    <t>[3.7, 4]</t>
-  </si>
-  <si>
-    <t>3.98***</t>
-  </si>
-  <si>
-    <t>[3.83, 4.14]</t>
-  </si>
-  <si>
-    <t>1.91***</t>
-  </si>
-  <si>
-    <t>[1.77, 2.04]</t>
-  </si>
-  <si>
-    <t>1.83***</t>
-  </si>
-  <si>
-    <t>43.50***</t>
-  </si>
-  <si>
-    <t>[38.59, 49.02]</t>
-  </si>
-  <si>
-    <t>40.52***</t>
-  </si>
-  <si>
-    <t>[35.54, 46.19]</t>
-  </si>
-  <si>
-    <t>0.26***</t>
-  </si>
-  <si>
-    <t>[0.12, 0.4]</t>
-  </si>
-  <si>
-    <t>[-0.16, 0.09]</t>
-  </si>
-  <si>
-    <t>[-0.2, 0.06]</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.17]</t>
-  </si>
-  <si>
-    <t>[0.92, 1.25]</t>
-  </si>
-  <si>
-    <t>1.22**</t>
-  </si>
-  <si>
-    <t>[1.07, 1.4]</t>
-  </si>
-  <si>
-    <t>-0.25*</t>
-  </si>
-  <si>
-    <t>[-0.48, -0.02]</t>
-  </si>
-  <si>
-    <t>[-0.2, 0.2]</t>
-  </si>
-  <si>
-    <t>[0, 0.36]</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>[-0.28, 0.06]</t>
-  </si>
-  <si>
-    <t>[0.89, 1.38]</t>
-  </si>
-  <si>
-    <t>0.78*</t>
-  </si>
-  <si>
-    <t>[0.64, 0.96]</t>
-  </si>
-  <si>
-    <t>[-0.08, 0.09]</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.1]</t>
-  </si>
-  <si>
-    <t>-0.10*</t>
-  </si>
-  <si>
-    <t>[-0.17, -0.02]</t>
-  </si>
-  <si>
-    <t>-0.11**</t>
-  </si>
-  <si>
-    <t>[-0.18, -0.05]</t>
-  </si>
-  <si>
-    <t>0.91*</t>
-  </si>
-  <si>
-    <t>[0.83, 1]</t>
-  </si>
-  <si>
-    <t>0.90*</t>
-  </si>
-  <si>
-    <t>[0.82, 0.99]</t>
-  </si>
-  <si>
-    <t>1.04**</t>
-  </si>
-  <si>
-    <t>[1.01, 1.06]</t>
-  </si>
-  <si>
-    <t>0.06**</t>
-  </si>
-  <si>
-    <t>[0.02, 0.1]</t>
-  </si>
-  <si>
-    <t>[1, 1.08]</t>
-  </si>
-  <si>
-    <t>1.08***</t>
-  </si>
-  <si>
-    <t>[1.04, 1.13]</t>
-  </si>
-  <si>
-    <t>-0.05**</t>
-  </si>
-  <si>
-    <t>[-0.08, -0.01]</t>
-  </si>
-  <si>
-    <t>1.11***</t>
-  </si>
-  <si>
-    <t>[1.06, 1.16]</t>
-  </si>
-  <si>
-    <t>[1.05, 1.13]</t>
-  </si>
-  <si>
-    <t>[-0.01, 0]</t>
-  </si>
-  <si>
-    <t>0.99**</t>
-  </si>
-  <si>
-    <t>[-0.29, 0.83]</t>
-  </si>
-  <si>
-    <t>[-0.03, 1.14]</t>
-  </si>
-  <si>
-    <t>[-0.55, 0.44]</t>
-  </si>
-  <si>
-    <t>[-1.13, -0.11]</t>
-  </si>
-  <si>
-    <t>[0.49, 1.14]</t>
-  </si>
-  <si>
-    <t>[0.63, 1.46]</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>[-0.8, 1.03]</t>
-  </si>
-  <si>
-    <t>-0.77</t>
-  </si>
-  <si>
-    <t>[-1.73, 0.19]</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>[-0.5, 1.12]</t>
-  </si>
-  <si>
-    <t>[-0.16, 1.49]</t>
-  </si>
-  <si>
-    <t>1.93</t>
-  </si>
-  <si>
-    <t>[0.93, 4]</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>[0.69, 2.8]</t>
-  </si>
-  <si>
-    <t>[0.94, 1.05]</t>
-  </si>
-  <si>
-    <t>[0.98, 1.1]</t>
-  </si>
-  <si>
-    <t>[-0.27, 0.09]</t>
-  </si>
-  <si>
-    <t>[-0.44, -0.06]</t>
-  </si>
-  <si>
-    <t>0.26**</t>
-  </si>
-  <si>
-    <t>[0.1, 0.42]</t>
-  </si>
-  <si>
-    <t>[-0.12, 0.21]</t>
-  </si>
-  <si>
-    <t>[0.89, 1.17]</t>
-  </si>
-  <si>
-    <t>[0.95, 1.25]</t>
-  </si>
-  <si>
-    <t>[-0.17, 0.18]</t>
-  </si>
-  <si>
-    <t>0.23*</t>
-  </si>
-  <si>
-    <t>[0.04, 0.41]</t>
-  </si>
-  <si>
-    <t>[-0.26, 0.05]</t>
-  </si>
-  <si>
-    <t>0.19*</t>
-  </si>
-  <si>
-    <t>[0.03, 0.34]</t>
-  </si>
-  <si>
-    <t>[0.89, 1.16]</t>
-  </si>
-  <si>
-    <t>[0.8, 1.05]</t>
-  </si>
-  <si>
-    <t>[0, 0.04]</t>
-  </si>
-  <si>
-    <t>[-0.01, 0.04]</t>
-  </si>
-  <si>
-    <t>[-0.04, 0]</t>
-  </si>
-  <si>
-    <t>[0.99, 1.03]</t>
-  </si>
-  <si>
-    <t>[0.55, 0.75]</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>[0.5, 0.68]</t>
-  </si>
-  <si>
-    <t>[0.52, 0.7]</t>
-  </si>
-  <si>
-    <t>[0.39, 0.55]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.56]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.52]</t>
-  </si>
-  <si>
-    <t>[0.19, 0.46]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.42]</t>
-  </si>
-  <si>
-    <t>[0.12, 0.46]</t>
-  </si>
-  <si>
-    <t>[0.09, 0.92]</t>
-  </si>
-  <si>
-    <t>[0.08, 0.75]</t>
-  </si>
-  <si>
-    <t>[0.08, 0.73]</t>
-  </si>
-  <si>
-    <t>[0, 30.85]</t>
-  </si>
-  <si>
-    <t>-0.44</t>
-  </si>
-  <si>
-    <t>[-0.82, 0.21]</t>
-  </si>
-  <si>
-    <t>-0.39</t>
-  </si>
-  <si>
-    <t>[-0.77, -0.01]</t>
-  </si>
-  <si>
-    <t>[-0.71, 0.07]</t>
-  </si>
-  <si>
-    <t>[-0.36, 0.62]</t>
-  </si>
-  <si>
-    <t>-0.49</t>
-  </si>
-  <si>
-    <t>[-0.81, 0.25]</t>
-  </si>
-  <si>
-    <t>[-0.68, 0.88]</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>[-0.64, 0.94]</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>[-0.79, 0.61]</t>
-  </si>
-  <si>
-    <t>[-0.65, 0.68]</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>[-0.84, 0.93]</t>
-  </si>
-  <si>
-    <t>[-1, 0.93]</t>
-  </si>
-  <si>
-    <t>-0.81</t>
-  </si>
-  <si>
-    <t>[-0.99, 0.61]</t>
-  </si>
-  <si>
-    <t>[0.09, 0.88]</t>
-  </si>
-  <si>
-    <t>[0.58, 0.64]</t>
-  </si>
-  <si>
-    <t>[0.51, 0.55]</t>
-  </si>
-  <si>
-    <t>14.79</t>
-  </si>
-  <si>
-    <t>[13.37, 16.36]</t>
-  </si>
-  <si>
-    <t>13.09</t>
-  </si>
-  <si>
-    <t>[9.38, 18.27]</t>
-  </si>
-  <si>
-    <t>[0.13, 0.27]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2093,49 +1451,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2147,25 +1469,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2470,25 +1783,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.2265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.31640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.2265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.31640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.2265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.76953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.75">
@@ -2600,37 +1913,37 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
       <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
       <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>38</v>
       </c>
       <c r="M4" t="s">
@@ -2641,37 +1954,37 @@
       <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" t="s">
         <v>51</v>
       </c>
       <c r="M5" t="s">
@@ -2733,65 +2046,65 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>67</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>68</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>69</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>70</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>71</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>72</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>73</v>
-      </c>
-      <c r="M7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>76</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>77</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>78</v>
-      </c>
-      <c r="M8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -2814,7 +2127,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -2837,7 +2150,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -2860,7 +2173,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -2883,7 +2196,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -2906,7 +2219,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -2929,7 +2242,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -2952,7 +2265,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -2975,7 +2288,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -2998,7 +2311,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -3021,7 +2334,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -3044,7 +2357,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -3067,7 +2380,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -3090,7 +2403,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -3113,89 +2426,89 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
         <v>94</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>97</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
         <v>98</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>99</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>100</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>101</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>102</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="s">
         <v>103</v>
-      </c>
-      <c r="K23" t="s">
-        <v>104</v>
-      </c>
-      <c r="L23" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
         <v>107</v>
-      </c>
-      <c r="B24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" t="s">
-        <v>111</v>
       </c>
       <c r="F24" t="s">
         <v>64</v>
       </c>
       <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" t="s">
         <v>112</v>
       </c>
-      <c r="H24" t="s">
+      <c r="L24" t="s">
         <v>113</v>
       </c>
-      <c r="I24" t="s">
+      <c r="M24" t="s">
         <v>114</v>
-      </c>
-      <c r="J24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M24" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -3213,18 +2526,18 @@
         <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -3247,7 +2560,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -3270,7 +2583,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -3293,7 +2606,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -3316,7 +2629,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
@@ -3339,7 +2652,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -3362,7 +2675,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -3385,7 +2698,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -3408,7 +2721,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
@@ -3431,7 +2744,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -3454,7 +2767,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
@@ -3477,7 +2790,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
@@ -3500,7 +2813,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
@@ -3523,294 +2836,294 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
         <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
         <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
         <v>54</v>
       </c>
       <c r="I39" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
         <v>60</v>
       </c>
       <c r="K39" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="L39" t="s">
         <v>60</v>
       </c>
       <c r="M39" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
         <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H40" t="s">
         <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="J41" t="s">
         <v>60</v>
       </c>
       <c r="K41" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="L41" t="s">
         <v>60</v>
       </c>
       <c r="M41" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="H42" t="s">
         <v>58</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J42" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K42" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="L42" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M42" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
         <v>31</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K43" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L43" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M43" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="F44" t="s">
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="I44" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="J44" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="L44" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="M44" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="I45" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="J45" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K45" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="L45" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="M45" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
@@ -3833,89 +3146,89 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="H47" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="I47" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="J47" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="K47" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="M47" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="F48" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="G48" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H48" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="I48" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="J48" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="K48" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="M48" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
@@ -3938,206 +3251,206 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F50" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="H50" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="M50" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G51" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="H51" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="J51" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="K51" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="M51" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G52" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J52" t="s">
         <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="M52" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="G53" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="H53" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="J53" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="K53" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="L53" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="M53" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="F54" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="G54" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="H54" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="J54" t="s">
         <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="F55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="G55" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="H55" t="s">
         <v>27</v>
@@ -4146,12 +3459,12 @@
         <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
@@ -4174,28 +3487,28 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="F57" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="G57" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="H57" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="J57" t="s">
         <v>27</v>
@@ -4206,7 +3519,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
@@ -4221,27 +3534,27 @@
         <v>27</v>
       </c>
       <c r="J58" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="K58" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="L58" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="M58" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
@@ -4256,7 +3569,7 @@
         <v>27</v>
       </c>
       <c r="L59" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4268,25 +3581,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.2265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.31640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.2265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.31640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.2265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.76953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.75">
@@ -4335,40 +3648,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="H2" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="K2" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="L2" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="M2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.75">
@@ -4398,82 +3711,82 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
+      <c r="B4" t="s">
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>306</v>
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>271</v>
+      </c>
+      <c r="H4" t="s">
+        <v>233</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>308</v>
+        <v>134</v>
+      </c>
+      <c r="J4" t="s">
+        <v>166</v>
       </c>
       <c r="K4" t="s">
-        <v>309</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>272</v>
+      </c>
+      <c r="L4" t="s">
+        <v>273</v>
       </c>
       <c r="M4" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>311</v>
+      <c r="B5" t="s">
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>276</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>207</v>
+        <v>271</v>
+      </c>
+      <c r="F5" t="s">
+        <v>277</v>
       </c>
       <c r="G5" t="s">
-        <v>314</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>278</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>317</v>
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>279</v>
       </c>
       <c r="K5" t="s">
-        <v>318</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>319</v>
+        <v>103</v>
+      </c>
+      <c r="L5" t="s">
+        <v>280</v>
       </c>
       <c r="M5" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.75">
@@ -4487,16 +3800,16 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -4511,7 +3824,7 @@
         <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
         <v>62</v>
@@ -4522,45 +3835,45 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>324</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="H7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" t="s">
         <v>69</v>
       </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
       <c r="J7" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="K7" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="L7" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="M7" t="s">
-        <v>330</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -4575,500 +3888,374 @@
         <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="K8" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>334</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>292</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>294</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>143</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>176</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>295</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>296</v>
+      </c>
+      <c r="E10" t="s">
+        <v>297</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>298</v>
+      </c>
+      <c r="I10" t="s">
+        <v>283</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>299</v>
+      </c>
+      <c r="K10" t="s">
+        <v>300</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>301</v>
+      </c>
+      <c r="M10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>282</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>303</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>335</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" t="s">
-        <v>336</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>337</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" t="s">
-        <v>339</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>163</v>
-      </c>
-      <c r="M12" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s">
-        <v>341</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>343</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" t="s">
-        <v>344</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" t="s">
-        <v>345</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" t="s">
-        <v>346</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" t="s">
-        <v>348</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" t="s">
-        <v>349</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G14" t="s">
-        <v>351</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" t="s">
-        <v>352</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>353</v>
-      </c>
-      <c r="K14" t="s">
-        <v>354</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" t="s">
-        <v>355</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>356</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
-      </c>
-      <c r="E15" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" t="s">
-        <v>359</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" t="s">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>292</v>
-      </c>
-      <c r="K15" t="s">
-        <v>361</v>
+        <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" t="s">
-        <v>346</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>362</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G16" t="s">
-        <v>364</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" t="s">
-        <v>365</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" t="s">
-        <v>367</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" t="s">
-        <v>368</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" t="s">
-        <v>369</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" t="s">
-        <v>370</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>371</v>
-      </c>
-      <c r="K17" t="s">
-        <v>372</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
-      </c>
-      <c r="M17" t="s">
-        <v>373</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>374</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
-      </c>
-      <c r="E18" t="s">
-        <v>376</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>362</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>377</v>
-      </c>
-      <c r="I18" t="s">
-        <v>378</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>379</v>
-      </c>
-      <c r="K18" t="s">
-        <v>380</v>
+        <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
-      </c>
-      <c r="M18" t="s">
-        <v>381</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>383</v>
-      </c>
-      <c r="E19" t="s">
-        <v>384</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>385</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" t="s">
-        <v>386</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" t="s">
-        <v>387</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
-      </c>
-      <c r="M19" t="s">
-        <v>388</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C20" t="s">
-        <v>390</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>391</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" t="s">
-        <v>391</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>392</v>
-      </c>
-      <c r="K20" t="s">
-        <v>393</v>
+        <v>27</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
-      </c>
-      <c r="M20" t="s">
-        <v>373</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>394</v>
-      </c>
-      <c r="C21" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>394</v>
-      </c>
-      <c r="E21" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" t="s">
-        <v>396</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" t="s">
-        <v>397</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>392</v>
-      </c>
-      <c r="M21" t="s">
-        <v>393</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -5091,89 +4278,89 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>398</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s">
-        <v>399</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="I23" t="s">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="J23" t="s">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="K23" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="L23" t="s">
-        <v>405</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>311</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="E24" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="G24" t="s">
-        <v>409</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>410</v>
+        <v>231</v>
       </c>
       <c r="I24" t="s">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>412</v>
+        <v>315</v>
       </c>
       <c r="K24" t="s">
-        <v>413</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s">
-        <v>414</v>
+        <v>316</v>
       </c>
       <c r="M24" t="s">
-        <v>415</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -5188,639 +4375,513 @@
         <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="K25" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="L25" t="s">
-        <v>416</v>
+        <v>176</v>
       </c>
       <c r="M25" t="s">
-        <v>417</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>319</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>275</v>
+      </c>
+      <c r="E26" t="s">
+        <v>320</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>321</v>
+      </c>
+      <c r="G26" t="s">
+        <v>322</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>233</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>323</v>
+      </c>
+      <c r="K26" t="s">
+        <v>103</v>
       </c>
       <c r="L26" t="s">
-        <v>27</v>
+        <v>324</v>
+      </c>
+      <c r="M26" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>325</v>
+      </c>
+      <c r="E27" t="s">
+        <v>212</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>278</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>326</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>323</v>
+      </c>
+      <c r="K27" t="s">
+        <v>103</v>
       </c>
       <c r="L27" t="s">
-        <v>27</v>
+        <v>100</v>
+      </c>
+      <c r="M27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="G28" t="s">
+        <v>143</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="I28" t="s">
+        <v>143</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="K28" t="s">
+        <v>144</v>
       </c>
       <c r="L28" t="s">
-        <v>27</v>
+        <v>146</v>
+      </c>
+      <c r="M28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>418</v>
-      </c>
-      <c r="C29" t="s">
-        <v>419</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>420</v>
-      </c>
-      <c r="E29" t="s">
-        <v>421</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>422</v>
-      </c>
-      <c r="G29" t="s">
-        <v>423</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>424</v>
-      </c>
-      <c r="I29" t="s">
-        <v>425</v>
+        <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>403</v>
-      </c>
-      <c r="K29" t="s">
-        <v>426</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>203</v>
-      </c>
-      <c r="M29" t="s">
-        <v>427</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>428</v>
-      </c>
-      <c r="C30" t="s">
-        <v>429</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>430</v>
-      </c>
-      <c r="E30" t="s">
-        <v>431</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>432</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" t="s">
-        <v>433</v>
+        <v>27</v>
       </c>
       <c r="J30" t="s">
-        <v>434</v>
-      </c>
-      <c r="K30" t="s">
-        <v>435</v>
+        <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" t="s">
-        <v>436</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>437</v>
-      </c>
-      <c r="C31" t="s">
-        <v>438</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>439</v>
-      </c>
-      <c r="E31" t="s">
-        <v>440</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>441</v>
-      </c>
-      <c r="G31" t="s">
-        <v>442</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" t="s">
-        <v>443</v>
+        <v>27</v>
       </c>
       <c r="J31" t="s">
-        <v>147</v>
-      </c>
-      <c r="K31" t="s">
-        <v>444</v>
+        <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>445</v>
-      </c>
-      <c r="M31" t="s">
-        <v>446</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
         <v>129</v>
       </c>
-      <c r="B32" t="s">
-        <v>447</v>
-      </c>
-      <c r="C32" t="s">
-        <v>448</v>
-      </c>
-      <c r="D32" t="s">
-        <v>447</v>
-      </c>
-      <c r="E32" t="s">
-        <v>449</v>
-      </c>
-      <c r="F32" t="s">
-        <v>311</v>
-      </c>
-      <c r="G32" t="s">
-        <v>450</v>
-      </c>
-      <c r="H32" t="s">
-        <v>451</v>
-      </c>
-      <c r="I32" t="s">
-        <v>452</v>
-      </c>
-      <c r="J32" t="s">
-        <v>453</v>
-      </c>
-      <c r="K32" t="s">
-        <v>454</v>
-      </c>
-      <c r="L32" t="s">
-        <v>455</v>
-      </c>
-      <c r="M32" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
         <v>130</v>
       </c>
-      <c r="B33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" t="s">
-        <v>457</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s">
-        <v>458</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" t="s">
-        <v>459</v>
-      </c>
-      <c r="H33" t="s">
-        <v>460</v>
-      </c>
-      <c r="I33" t="s">
-        <v>461</v>
-      </c>
-      <c r="J33" t="s">
-        <v>462</v>
-      </c>
-      <c r="K33" t="s">
-        <v>463</v>
-      </c>
-      <c r="L33" t="s">
-        <v>464</v>
-      </c>
-      <c r="M33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
         <v>131</v>
       </c>
-      <c r="B34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" t="s">
-        <v>466</v>
-      </c>
-      <c r="D34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" t="s">
-        <v>467</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" t="s">
-        <v>468</v>
-      </c>
-      <c r="H34" t="s">
-        <v>197</v>
-      </c>
-      <c r="I34" t="s">
-        <v>469</v>
-      </c>
-      <c r="J34" t="s">
-        <v>203</v>
-      </c>
-      <c r="K34" t="s">
-        <v>470</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
         <v>147</v>
       </c>
-      <c r="M34" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" t="s">
-        <v>472</v>
-      </c>
-      <c r="C35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D35" t="s">
-        <v>267</v>
-      </c>
-      <c r="E35" t="s">
-        <v>474</v>
-      </c>
-      <c r="F35" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" t="s">
-        <v>475</v>
-      </c>
-      <c r="H35" t="s">
-        <v>197</v>
-      </c>
-      <c r="I35" t="s">
-        <v>476</v>
-      </c>
-      <c r="J35" t="s">
-        <v>292</v>
-      </c>
-      <c r="K35" t="s">
-        <v>477</v>
-      </c>
-      <c r="L35" t="s">
-        <v>478</v>
-      </c>
-      <c r="M35" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" t="s">
-        <v>480</v>
-      </c>
-      <c r="D36" t="s">
-        <v>195</v>
-      </c>
-      <c r="E36" t="s">
-        <v>481</v>
-      </c>
-      <c r="F36" t="s">
-        <v>424</v>
-      </c>
-      <c r="G36" t="s">
-        <v>482</v>
-      </c>
-      <c r="H36" t="s">
-        <v>424</v>
-      </c>
-      <c r="I36" t="s">
-        <v>483</v>
-      </c>
-      <c r="J36" t="s">
-        <v>203</v>
-      </c>
-      <c r="K36" t="s">
-        <v>484</v>
-      </c>
-      <c r="L36" t="s">
-        <v>292</v>
-      </c>
-      <c r="M36" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" t="s">
-        <v>485</v>
-      </c>
-      <c r="C37" t="s">
-        <v>486</v>
-      </c>
-      <c r="D37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>487</v>
-      </c>
-      <c r="F37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G37" t="s">
-        <v>488</v>
-      </c>
-      <c r="H37" t="s">
-        <v>267</v>
-      </c>
-      <c r="I37" t="s">
-        <v>489</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
         <v>149</v>
       </c>
-      <c r="K37" t="s">
-        <v>490</v>
-      </c>
-      <c r="L37" t="s">
-        <v>491</v>
-      </c>
-      <c r="M37" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" t="s">
-        <v>493</v>
-      </c>
-      <c r="D38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" t="s">
-        <v>494</v>
-      </c>
-      <c r="F38" t="s">
-        <v>424</v>
-      </c>
-      <c r="G38" t="s">
-        <v>495</v>
-      </c>
-      <c r="H38" t="s">
-        <v>496</v>
-      </c>
-      <c r="I38" t="s">
-        <v>497</v>
-      </c>
-      <c r="J38" t="s">
-        <v>203</v>
-      </c>
-      <c r="K38" t="s">
-        <v>498</v>
-      </c>
-      <c r="L38" t="s">
-        <v>478</v>
-      </c>
-      <c r="M38" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
         <v>159</v>
       </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>182</v>
-      </c>
       <c r="B45" t="s">
         <v>27</v>
       </c>
@@ -5840,9 +4901,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
@@ -5863,9 +4924,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
         <v>27</v>
@@ -5886,9 +4947,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
         <v>27</v>
@@ -5911,7 +4972,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
@@ -5934,238 +4995,226 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
-        <v>499</v>
+        <v>327</v>
       </c>
       <c r="C50" t="s">
-        <v>500</v>
+        <v>245</v>
       </c>
       <c r="D50" t="s">
-        <v>501</v>
-      </c>
-      <c r="E50" t="s">
-        <v>502</v>
+        <v>328</v>
       </c>
       <c r="F50" t="s">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="G50" t="s">
-        <v>503</v>
+        <v>330</v>
       </c>
       <c r="H50" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="I50" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="K50" t="s">
-        <v>504</v>
+        <v>331</v>
       </c>
       <c r="L50" t="s">
-        <v>505</v>
+        <v>247</v>
       </c>
       <c r="M50" t="s">
-        <v>506</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>507</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
-      </c>
-      <c r="E51" t="s">
-        <v>508</v>
+        <v>205</v>
       </c>
       <c r="F51" t="s">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="G51" t="s">
-        <v>509</v>
+        <v>334</v>
       </c>
       <c r="H51" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="I51" t="s">
-        <v>510</v>
+        <v>201</v>
       </c>
       <c r="J51" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="K51" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s">
-        <v>511</v>
+        <v>224</v>
       </c>
       <c r="M51" t="s">
-        <v>512</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>513</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s">
-        <v>514</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>290</v>
-      </c>
-      <c r="E52" t="s">
-        <v>515</v>
+        <v>171</v>
       </c>
       <c r="F52" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="G52" t="s">
-        <v>516</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>513</v>
+        <v>224</v>
       </c>
       <c r="I52" t="s">
-        <v>517</v>
+        <v>206</v>
       </c>
       <c r="J52" t="s">
         <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="M52" t="s">
-        <v>518</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="C53" t="s">
-        <v>519</v>
+        <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>520</v>
-      </c>
-      <c r="E53" t="s">
-        <v>521</v>
+        <v>336</v>
       </c>
       <c r="F53" t="s">
-        <v>522</v>
+        <v>337</v>
       </c>
       <c r="G53" t="s">
-        <v>523</v>
+        <v>338</v>
       </c>
       <c r="H53" t="s">
-        <v>101</v>
+        <v>336</v>
       </c>
       <c r="I53" t="s">
-        <v>524</v>
+        <v>228</v>
       </c>
       <c r="J53" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="K53" t="s">
-        <v>525</v>
+        <v>340</v>
       </c>
       <c r="L53" t="s">
-        <v>526</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s">
-        <v>527</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s">
-        <v>528</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>529</v>
+        <v>343</v>
       </c>
       <c r="D54" t="s">
-        <v>530</v>
-      </c>
-      <c r="E54" t="s">
-        <v>531</v>
+        <v>344</v>
       </c>
       <c r="F54" t="s">
-        <v>499</v>
+        <v>345</v>
       </c>
       <c r="G54" t="s">
-        <v>532</v>
+        <v>184</v>
       </c>
       <c r="H54" t="s">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="I54" t="s">
-        <v>533</v>
+        <v>347</v>
       </c>
       <c r="J54" t="s">
         <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>534</v>
+        <v>231</v>
+      </c>
+      <c r="M54" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="C55" t="s">
-        <v>531</v>
+        <v>220</v>
       </c>
       <c r="D55" t="s">
-        <v>535</v>
-      </c>
-      <c r="E55" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>536</v>
+        <v>239</v>
       </c>
       <c r="G55" t="s">
-        <v>537</v>
+        <v>230</v>
       </c>
       <c r="H55" t="s">
-        <v>526</v>
+        <v>350</v>
       </c>
       <c r="I55" t="s">
-        <v>538</v>
+        <v>238</v>
       </c>
       <c r="J55" t="s">
         <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>101</v>
+        <v>234</v>
+      </c>
+      <c r="M55" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
@@ -6188,31 +5237,28 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>539</v>
+        <v>351</v>
       </c>
       <c r="D57" t="s">
-        <v>540</v>
-      </c>
-      <c r="E57" t="s">
-        <v>541</v>
+        <v>244</v>
       </c>
       <c r="F57" t="s">
-        <v>542</v>
+        <v>352</v>
       </c>
       <c r="G57" t="s">
-        <v>543</v>
+        <v>197</v>
       </c>
       <c r="H57" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="I57" t="s">
-        <v>544</v>
+        <v>353</v>
       </c>
       <c r="J57" t="s">
         <v>27</v>
@@ -6223,7 +5269,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
@@ -6238,27 +5284,27 @@
         <v>27</v>
       </c>
       <c r="J58" t="s">
-        <v>545</v>
+        <v>354</v>
       </c>
       <c r="K58" t="s">
-        <v>546</v>
+        <v>355</v>
       </c>
       <c r="L58" t="s">
-        <v>547</v>
+        <v>356</v>
       </c>
       <c r="M58" t="s">
-        <v>548</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="C59" t="s">
-        <v>549</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
@@ -6273,7 +5319,7 @@
         <v>27</v>
       </c>
       <c r="L59" t="s">
-        <v>550</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6285,25 +5331,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" activeCellId="1" sqref="F4 J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.2265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.31640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.2265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.31640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.2265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.76953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.75">
@@ -6352,40 +5398,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
-        <v>552</v>
+        <v>360</v>
       </c>
       <c r="D2" t="s">
-        <v>553</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
-        <v>554</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
-        <v>555</v>
+        <v>363</v>
       </c>
       <c r="G2" t="s">
-        <v>556</v>
+        <v>364</v>
       </c>
       <c r="H2" t="s">
-        <v>557</v>
+        <v>365</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="J2" t="s">
-        <v>558</v>
+        <v>366</v>
       </c>
       <c r="K2" t="s">
-        <v>559</v>
+        <v>367</v>
       </c>
       <c r="L2" t="s">
-        <v>560</v>
+        <v>368</v>
       </c>
       <c r="M2" t="s">
-        <v>561</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.75">
@@ -6415,82 +5461,82 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>562</v>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>564</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>315</v>
+        <v>180</v>
+      </c>
+      <c r="F4" t="s">
+        <v>370</v>
       </c>
       <c r="G4" t="s">
-        <v>565</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>267</v>
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>566</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>191</v>
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>371</v>
       </c>
       <c r="K4" t="s">
-        <v>567</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>568</v>
+        <v>372</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>569</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>570</v>
+      <c r="B5" t="s">
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>571</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>276</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>572</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>485</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
       </c>
       <c r="G5" t="s">
-        <v>573</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>574</v>
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>270</v>
       </c>
       <c r="I5" t="s">
-        <v>575</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>455</v>
+        <v>170</v>
+      </c>
+      <c r="J5" t="s">
+        <v>374</v>
       </c>
       <c r="K5" t="s">
-        <v>576</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>577</v>
+        <v>375</v>
+      </c>
+      <c r="L5" t="s">
+        <v>376</v>
       </c>
       <c r="M5" t="s">
-        <v>578</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.75">
@@ -6504,7 +5550,7 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -6513,7 +5559,7 @@
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -6525,10 +5571,10 @@
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
         <v>62</v>
@@ -6539,45 +5585,45 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>579</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>580</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>581</v>
+        <v>377</v>
       </c>
       <c r="G7" t="s">
-        <v>582</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>583</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>584</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>585</v>
+        <v>378</v>
       </c>
       <c r="K7" t="s">
-        <v>586</v>
+        <v>379</v>
       </c>
       <c r="L7" t="s">
-        <v>587</v>
+        <v>380</v>
       </c>
       <c r="M7" t="s">
-        <v>588</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -6592,374 +5638,500 @@
         <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>589</v>
+        <v>381</v>
       </c>
       <c r="K8" t="s">
-        <v>590</v>
+        <v>372</v>
       </c>
       <c r="L8" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>334</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>591</v>
-      </c>
-      <c r="C9" t="s">
-        <v>592</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>386</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
-      </c>
-      <c r="G9" t="s">
-        <v>376</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>203</v>
-      </c>
-      <c r="K9" t="s">
-        <v>593</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>594</v>
-      </c>
-      <c r="M9" t="s">
-        <v>595</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>386</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>396</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>596</v>
-      </c>
-      <c r="I10" t="s">
-        <v>597</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>598</v>
-      </c>
-      <c r="K10" t="s">
-        <v>599</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>392</v>
-      </c>
-      <c r="M10" t="s">
-        <v>600</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" t="s">
-        <v>601</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>602</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>382</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>158</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>146</v>
+      </c>
+      <c r="M12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>283</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>141</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>283</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>272</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="M13" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>383</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>233</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>384</v>
+      </c>
+      <c r="G14" t="s">
+        <v>385</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="I14" t="s">
+        <v>382</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>323</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="M14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>386</v>
+      </c>
+      <c r="E15" t="s">
+        <v>297</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>283</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>255</v>
+      </c>
+      <c r="K15" t="s">
+        <v>375</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="M15" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>387</v>
+      </c>
+      <c r="G16" t="s">
+        <v>297</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>116</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="M16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>382</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>382</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>150</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>388</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>146</v>
+      </c>
+      <c r="M17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>294</v>
+      </c>
+      <c r="E18" t="s">
+        <v>283</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>296</v>
+      </c>
+      <c r="I18" t="s">
+        <v>293</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>389</v>
+      </c>
+      <c r="K18" t="s">
+        <v>390</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>137</v>
+      </c>
+      <c r="M18" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>391</v>
+      </c>
+      <c r="E19" t="s">
+        <v>392</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="K19" t="s">
+        <v>138</v>
       </c>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>137</v>
+      </c>
+      <c r="M19" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>393</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>301</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>146</v>
+      </c>
+      <c r="M20" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>394</v>
+      </c>
+      <c r="C21" t="s">
+        <v>297</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>394</v>
+      </c>
+      <c r="E21" t="s">
+        <v>297</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="G21" t="s">
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="K21" t="s">
+        <v>116</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
+        <v>301</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -6982,89 +6154,89 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>395</v>
       </c>
       <c r="C23" t="s">
-        <v>603</v>
+        <v>396</v>
       </c>
       <c r="D23" t="s">
-        <v>540</v>
+        <v>207</v>
       </c>
       <c r="E23" t="s">
-        <v>604</v>
+        <v>397</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>605</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>428</v>
+        <v>219</v>
       </c>
       <c r="I23" t="s">
-        <v>606</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="K23" t="s">
-        <v>607</v>
+        <v>399</v>
       </c>
       <c r="L23" t="s">
-        <v>292</v>
+        <v>400</v>
       </c>
       <c r="M23" t="s">
-        <v>608</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>609</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>610</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>611</v>
+        <v>223</v>
       </c>
       <c r="E24" t="s">
-        <v>612</v>
+        <v>401</v>
       </c>
       <c r="F24" t="s">
-        <v>613</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>614</v>
+        <v>402</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="I24" t="s">
-        <v>615</v>
+        <v>404</v>
       </c>
       <c r="J24" t="s">
-        <v>616</v>
+        <v>405</v>
       </c>
       <c r="K24" t="s">
-        <v>617</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>618</v>
+        <v>406</v>
       </c>
       <c r="M24" t="s">
-        <v>619</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -7079,398 +6251,524 @@
         <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s">
-        <v>620</v>
+        <v>116</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>408</v>
       </c>
       <c r="M25" t="s">
-        <v>621</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>472</v>
-      </c>
-      <c r="C26" t="s">
-        <v>622</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>570</v>
-      </c>
-      <c r="E26" t="s">
-        <v>623</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>624</v>
-      </c>
-      <c r="G26" t="s">
-        <v>625</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
-      </c>
-      <c r="I26" t="s">
-        <v>626</v>
+        <v>27</v>
       </c>
       <c r="J26" t="s">
-        <v>353</v>
-      </c>
-      <c r="K26" t="s">
-        <v>627</v>
+        <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>464</v>
-      </c>
-      <c r="M26" t="s">
-        <v>628</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>629</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>630</v>
-      </c>
-      <c r="E27" t="s">
-        <v>631</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>574</v>
-      </c>
-      <c r="G27" t="s">
-        <v>632</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>633</v>
-      </c>
-      <c r="I27" t="s">
-        <v>634</v>
+        <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>353</v>
-      </c>
-      <c r="K27" t="s">
-        <v>635</v>
+        <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
-      </c>
-      <c r="M27" t="s">
-        <v>636</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" t="s">
-        <v>637</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
-        <v>638</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" t="s">
-        <v>639</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" t="s">
-        <v>639</v>
+        <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>163</v>
-      </c>
-      <c r="M28" t="s">
-        <v>640</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>409</v>
+      </c>
+      <c r="C29" t="s">
+        <v>410</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>411</v>
+      </c>
+      <c r="E29" t="s">
+        <v>412</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>413</v>
+      </c>
+      <c r="G29" t="s">
+        <v>414</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>415</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>398</v>
+      </c>
+      <c r="K29" t="s">
+        <v>351</v>
       </c>
       <c r="L29" t="s">
-        <v>27</v>
+        <v>176</v>
+      </c>
+      <c r="M29" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>306</v>
+      </c>
+      <c r="C30" t="s">
+        <v>417</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>337</v>
+      </c>
+      <c r="E30" t="s">
+        <v>418</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>419</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="I30" t="s">
+        <v>420</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>421</v>
+      </c>
+      <c r="K30" t="s">
+        <v>177</v>
       </c>
       <c r="L30" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="M30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>422</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>358</v>
+      </c>
+      <c r="E31" t="s">
+        <v>423</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>424</v>
+      </c>
+      <c r="G31" t="s">
+        <v>425</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>142</v>
+      </c>
+      <c r="I31" t="s">
+        <v>426</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>27</v>
+        <v>427</v>
+      </c>
+      <c r="M31" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>352</v>
+      </c>
+      <c r="E32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G32" t="s">
+        <v>429</v>
+      </c>
+      <c r="H32" t="s">
+        <v>430</v>
+      </c>
+      <c r="I32" t="s">
+        <v>431</v>
+      </c>
+      <c r="J32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" t="s">
+        <v>279</v>
+      </c>
+      <c r="M32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>433</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>271</v>
+      </c>
+      <c r="H33" t="s">
+        <v>434</v>
+      </c>
+      <c r="I33" t="s">
+        <v>435</v>
+      </c>
+      <c r="J33" t="s">
+        <v>436</v>
+      </c>
+      <c r="K33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" t="s">
+        <v>324</v>
+      </c>
+      <c r="M33" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" t="s">
+        <v>135</v>
+      </c>
+      <c r="M34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" t="s">
+        <v>392</v>
+      </c>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>438</v>
+      </c>
+      <c r="L35" t="s">
+        <v>439</v>
+      </c>
+      <c r="M35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>385</v>
+      </c>
+      <c r="D36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" t="s">
+        <v>382</v>
+      </c>
+      <c r="F36" t="s">
+        <v>415</v>
+      </c>
+      <c r="G36" t="s">
+        <v>382</v>
+      </c>
+      <c r="H36" t="s">
+        <v>415</v>
+      </c>
+      <c r="I36" t="s">
+        <v>382</v>
+      </c>
+      <c r="J36" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" t="s">
+        <v>318</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
         <v>129</v>
       </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
+      <c r="B37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>440</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" t="s">
+        <v>285</v>
+      </c>
+      <c r="H37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" t="s">
+        <v>441</v>
+      </c>
+      <c r="M37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
         <v>130</v>
       </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>392</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>385</v>
+      </c>
+      <c r="F38" t="s">
+        <v>415</v>
+      </c>
+      <c r="G38" t="s">
+        <v>283</v>
+      </c>
+      <c r="H38" t="s">
+        <v>442</v>
+      </c>
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" t="s">
+        <v>176</v>
+      </c>
+      <c r="K38" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s">
+        <v>439</v>
+      </c>
+      <c r="M38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
         <v>131</v>
       </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
         <v>132</v>
       </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
-        <v>142</v>
-      </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
@@ -7490,9 +6788,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
@@ -7513,79 +6811,79 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
         <v>159</v>
       </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>182</v>
-      </c>
       <c r="B45" t="s">
         <v>27</v>
       </c>
@@ -7605,9 +6903,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
@@ -7628,9 +6926,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
         <v>27</v>
@@ -7651,9 +6949,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
         <v>27</v>
@@ -7676,7 +6974,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
@@ -7699,226 +6997,238 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
-        <v>499</v>
+        <v>327</v>
       </c>
       <c r="C50" t="s">
-        <v>641</v>
+        <v>428</v>
       </c>
       <c r="D50" t="s">
-        <v>642</v>
+        <v>443</v>
+      </c>
+      <c r="E50" t="s">
+        <v>444</v>
       </c>
       <c r="F50" t="s">
-        <v>643</v>
+        <v>192</v>
       </c>
       <c r="G50" t="s">
-        <v>644</v>
+        <v>193</v>
       </c>
       <c r="H50" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="I50" t="s">
-        <v>645</v>
+        <v>193</v>
       </c>
       <c r="J50" t="s">
-        <v>283</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s">
-        <v>646</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s">
-        <v>283</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s">
-        <v>647</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>648</v>
+        <v>322</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
+        <v>211</v>
+      </c>
+      <c r="E51" t="s">
+        <v>414</v>
       </c>
       <c r="F51" t="s">
-        <v>513</v>
+        <v>207</v>
       </c>
       <c r="G51" t="s">
-        <v>649</v>
+        <v>448</v>
       </c>
       <c r="H51" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="I51" t="s">
-        <v>650</v>
+        <v>201</v>
       </c>
       <c r="J51" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="K51" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="M51" t="s">
-        <v>651</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="C52" t="s">
-        <v>652</v>
+        <v>449</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>254</v>
+      </c>
+      <c r="E52" t="s">
+        <v>161</v>
       </c>
       <c r="F52" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>653</v>
+        <v>450</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="I52" t="s">
-        <v>654</v>
+        <v>450</v>
       </c>
       <c r="J52" t="s">
         <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s">
-        <v>655</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>656</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>657</v>
+        <v>451</v>
       </c>
       <c r="D53" t="s">
-        <v>658</v>
+        <v>452</v>
+      </c>
+      <c r="E53" t="s">
+        <v>238</v>
       </c>
       <c r="F53" t="s">
-        <v>430</v>
+        <v>344</v>
       </c>
       <c r="G53" t="s">
-        <v>659</v>
+        <v>453</v>
       </c>
       <c r="H53" t="s">
-        <v>658</v>
+        <v>98</v>
       </c>
       <c r="I53" t="s">
-        <v>660</v>
+        <v>454</v>
       </c>
       <c r="J53" t="s">
-        <v>511</v>
+        <v>240</v>
       </c>
       <c r="K53" t="s">
-        <v>661</v>
+        <v>48</v>
       </c>
       <c r="L53" t="s">
-        <v>662</v>
+        <v>455</v>
       </c>
       <c r="M53" t="s">
-        <v>663</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>456</v>
       </c>
       <c r="C54" t="s">
-        <v>664</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>522</v>
+        <v>457</v>
+      </c>
+      <c r="E54" t="s">
+        <v>230</v>
       </c>
       <c r="F54" t="s">
-        <v>665</v>
+        <v>327</v>
       </c>
       <c r="G54" t="s">
-        <v>666</v>
+        <v>458</v>
       </c>
       <c r="H54" t="s">
-        <v>667</v>
+        <v>411</v>
       </c>
       <c r="I54" t="s">
-        <v>668</v>
+        <v>228</v>
       </c>
       <c r="J54" t="s">
         <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>265</v>
-      </c>
-      <c r="M54" t="s">
-        <v>669</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s">
-        <v>670</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>671</v>
+        <v>230</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>460</v>
+      </c>
+      <c r="E55" t="s">
+        <v>238</v>
       </c>
       <c r="F55" t="s">
-        <v>273</v>
+        <v>461</v>
       </c>
       <c r="G55" t="s">
-        <v>672</v>
+        <v>230</v>
       </c>
       <c r="H55" t="s">
-        <v>673</v>
+        <v>455</v>
       </c>
       <c r="I55" t="s">
-        <v>674</v>
+        <v>238</v>
       </c>
       <c r="J55" t="s">
         <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>268</v>
-      </c>
-      <c r="M55" t="s">
-        <v>675</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
@@ -7941,28 +7251,31 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C57" t="s">
-        <v>676</v>
+        <v>462</v>
       </c>
       <c r="D57" t="s">
-        <v>279</v>
+        <v>304</v>
+      </c>
+      <c r="E57" t="s">
+        <v>428</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="G57" t="s">
-        <v>677</v>
+        <v>330</v>
       </c>
       <c r="H57" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="I57" t="s">
-        <v>544</v>
+        <v>353</v>
       </c>
       <c r="J57" t="s">
         <v>27</v>
@@ -7973,7 +7286,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
@@ -7988,27 +7301,27 @@
         <v>27</v>
       </c>
       <c r="J58" t="s">
-        <v>678</v>
+        <v>464</v>
       </c>
       <c r="K58" t="s">
-        <v>679</v>
+        <v>465</v>
       </c>
       <c r="L58" t="s">
-        <v>680</v>
+        <v>466</v>
       </c>
       <c r="M58" t="s">
-        <v>681</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="B59" t="s">
-        <v>511</v>
+        <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>682</v>
+        <v>269</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
@@ -8023,7 +7336,7 @@
         <v>27</v>
       </c>
       <c r="L59" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
